--- a/InstallationFiles/ComputerFolders.xlsx
+++ b/InstallationFiles/ComputerFolders.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Computer Name</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>User Name</t>
+  </si>
+  <si>
+    <t>PreProcPath</t>
   </si>
 </sst>
 </file>
@@ -441,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,21 +495,26 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
